--- a/appendix/mean_f1_macro.xlsx
+++ b/appendix/mean_f1_macro.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.363</v>
+        <v>0.37</v>
       </c>
       <c r="D5" t="n">
-        <v>0.477</v>
+        <v>0.488</v>
       </c>
       <c r="E5" t="n">
-        <v>0.516</v>
+        <v>0.523</v>
       </c>
       <c r="F5" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.554</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.528</v>
       </c>
     </row>
     <row r="6">
@@ -618,20 +618,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.363</v>
+        <v>0.37</v>
       </c>
       <c r="D7" t="n">
-        <v>0.477</v>
+        <v>0.488</v>
       </c>
       <c r="E7" t="n">
-        <v>0.516</v>
+        <v>0.523</v>
       </c>
       <c r="F7" t="n">
         <v>0.5669999999999999</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.55</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.648</v>
+        <v>0.637</v>
       </c>
       <c r="G8" t="n">
-        <v>0.622</v>
+        <v>0.621</v>
       </c>
       <c r="H8" t="n">
-        <v>0.647</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="C9" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="D9" t="n">
         <v>0.591</v>
       </c>
       <c r="E9" t="n">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="F9" t="n">
         <v>0.647</v>
       </c>
       <c r="G9" t="n">
-        <v>0.601</v>
+        <v>0.597</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>0.626</v>
       </c>
     </row>
   </sheetData>
